--- a/src/add_D.xlsx
+++ b/src/add_D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\AS2023\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF850A4E-FF12-41F3-A1D6-56939D6A2153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229A0B4F-5B4D-424D-9F18-ADAFAE2CE74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4470" yWindow="2010" windowWidth="21600" windowHeight="10305" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEC_EL" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="CABLE_EL" sheetId="5" r:id="rId5"/>
     <sheet name="CABLE_GR" sheetId="6" r:id="rId6"/>
     <sheet name="TASK" sheetId="7" r:id="rId7"/>
+    <sheet name="TASK_TYPES" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">AEC_GR!$A$1:$O$491</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9005" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9081" uniqueCount="1323">
   <si>
     <t>Таблица 1.0.1</t>
   </si>
@@ -4567,6 +4568,87 @@
   </si>
   <si>
     <t>ЗД1_Пл1_+3,600</t>
+  </si>
+  <si>
+    <t>Формирование_каналов</t>
+  </si>
+  <si>
+    <t>Формирование_кабельных_каналов</t>
+  </si>
+  <si>
+    <t>Формирование_закладных_изделий</t>
+  </si>
+  <si>
+    <t>Формирование_приямков</t>
+  </si>
+  <si>
+    <t>Формирование_ниши</t>
+  </si>
+  <si>
+    <t>Формирование_фундаментов</t>
+  </si>
+  <si>
+    <t>Формирование_монтажных_проемов</t>
+  </si>
+  <si>
+    <t>Формирование_строительных_конструкций</t>
+  </si>
+  <si>
+    <t>Формирование_здания</t>
+  </si>
+  <si>
+    <t>Формирование_проемов_для_ограждающих_конструкций</t>
+  </si>
+  <si>
+    <t>Размещение_дверей</t>
+  </si>
+  <si>
+    <t>Размещение_ворот</t>
+  </si>
+  <si>
+    <t>№ п.п.</t>
+  </si>
+  <si>
+    <t>Вид задания</t>
+  </si>
+  <si>
+    <t>Тип задания</t>
+  </si>
+  <si>
+    <t>Кислород</t>
+  </si>
+  <si>
+    <t>Техническая_вода</t>
+  </si>
+  <si>
+    <t>Холодная_вода</t>
+  </si>
+  <si>
+    <t>Охлажденная_вода</t>
+  </si>
+  <si>
+    <t>Отепленная_вода</t>
+  </si>
+  <si>
+    <t>Углекислый_газ</t>
+  </si>
+  <si>
+    <t>Воздух</t>
+  </si>
+  <si>
+    <t>Горячая_вода</t>
+  </si>
+  <si>
+    <t>Канализация</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -6139,7 +6221,7 @@
   </sheetPr>
   <dimension ref="A1:F306"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="55" zoomScaleNormal="75" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A16"/>
     </sheetView>
   </sheetViews>
@@ -11575,8 +11657,8 @@
   </sheetPr>
   <dimension ref="A1:O575"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A420" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="M437" sqref="M437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28083,7 +28165,7 @@
     <mergeCell ref="B491:I491"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.39374999999999999" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="8" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="95" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="24" manualBreakCount="24">
     <brk id="17" max="16383" man="1"/>
     <brk id="30" max="16383" man="1"/>
@@ -36590,8 +36672,8 @@
   </sheetPr>
   <dimension ref="A1:F467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A448" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E460" sqref="E460"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A387" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="F397" sqref="F397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44871,7 +44953,7 @@
   </sheetPr>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="B71" sqref="B71:I71"/>
     </sheetView>
   </sheetViews>
@@ -47809,8 +47891,8 @@
   </sheetPr>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49485,11 +49567,381 @@
     <mergeCell ref="C61:D61"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.39374999999999999" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="8" scale="98" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="89" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="16" max="16383" man="1"/>
     <brk id="34" max="16383" man="1"/>
     <brk id="49" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AB55CC-B7A9-4872-993B-5E17EBC6872B}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>